--- a/项目计划书-de-sensitive.xlsx
+++ b/项目计划书-de-sensitive.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
   <si>
     <t>Imagine Cup 2016 微软“创新杯”全球学生科技大赛</t>
   </si>
@@ -85,41 +85,6 @@
   </si>
   <si>
     <t>电话</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IC</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>站点注册</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Email</t>
-    </r>
-  </si>
-  <si>
-    <t>郑贵锋</t>
   </si>
   <si>
     <t>1. Preliminary Summary项目概述（英文）（此部分为必选部分）</t>
@@ -138,10 +103,6 @@
   </si>
   <si>
     <t>4. 商业模式</t>
-  </si>
-  <si>
-    <t>a) 商业模式是否有可实施的计划？
-b) 作品完成过程中是否有外部市场调查，焦点小组测试和beta测试的计划？</t>
   </si>
   <si>
     <t>a) 系统计划选用什么技术平台？采用什么样的架构？
@@ -266,139 +227,357 @@
     <t>IC站点注册Email5</t>
   </si>
   <si>
+    <t>中山大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@逆淚Gyakkun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Design Preliminary Summary：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Name：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Poster Collection !</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>中山大学</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>@逆淚Gyakkun</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA6A6A6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>如果参加了区域选拔赛，请填写所参赛的区域或校区；未参加区域选拔赛的团队请忽略此项</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA6A6A6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>[世界公民]
-a) 作品所能影响的地域范围或影响的人口数量？
-b) 作品试图解决问题的现实意义？
-c) 作品针对现有解决方案是否有创新或者改进？
-[创新]
-a) 作品是否具有创新性和突破性？
-b) 作品是否有全新的功能或者在很大程度上提升了已有应用的功能？
-[游戏]
-a) 游戏的设计理念？
-b) 游戏的设计如何引人入胜？</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>软件学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>级</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project Design Preliminary Summary：</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project Name：</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poster Collection !</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ZgenY an Gyak</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>概述应简单描述团队参赛项目的基本设计，总结解决方案的独特功能以及它如何回应所参加的比赛项目对参赛作品的要求。同时，该总结应归纳在参赛作品中计划使用的任何第三方内容。概述部分不得少于600字符（包括空格）。</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">It seems that video is occupying our daily amusement. We watch movies, TV series, cartoon, animation, short clips and so many other motion media. As a part of these media, poster with well design always attract audience at first sight, even without seeing the actual pictures. Just like the cover of recording albums, poster highly describes the main theme and tone of the work. In addition, it takes the key scene or visual style from the whole work, display the fragment of attractive from the plots, so undoubtedly poster is something that greatly matters the whole impression of the actual work.
 We see album cover art searching apps in the market, like AlbumArtDownloader by alexvallat and marclandis and many other web-base apps. The main machanism of these apps are crawling information from shopping sites like amazon, iTunes shop and others. They parse the cover url and download it from website to display in local machine. AlbumArtDownloader can even classify the downloaded cover art into folders with the corresponding album's title. It's a nice example with good user experience for our project today. 
 So now our team in this project aims at a poster download and classify application, with simple media information query function and share-to-SNS features.  
 </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[创新]
+a) 作品是否具有创新性和突破性？
+b) 作品是否有全新的功能或者在很大程度上提升了已有应用的功能？
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a) 商业模式是否有可实施的计划？
+b) 作品完成过程中是否有外部市场调查，焦点小组测试和beta测试的计划？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山大学 东校区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a)  灵感来源:因为热爱电影, 而且对iTunes等音乐管理应用的高清专辑封面比较喜欢, 加上市场上现有的大部分是下载专辑封面的应用, 而没有视频作品的封面下载, 便打算设计一个收集海报的应用。
+b) 目标群体: 整理、收藏爱好者, 喜欢分门别类地拜访自己的视频收藏资源。在资源的目录下放置一张海报, 甚至直接嵌入MP4文件, 会使得分类的效率大大提高。
+c) 使用场景: 从网上下载完电影资源后, 像搜索音乐专辑封面一样搜索电影海报的时候。
+d) 暂未发现。市面上基本是以电影资讯为主的网站, 如豆瓣, IMDB, 时光网 ,TMDB等。没有专门检索海报的应用。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a) 具备一定的创新型与突破性。很大程度上能提供一个一站式收藏、管理海报的平台。
+b) 理念是借鉴自音乐专辑封面下载器, 所以不能说有很大的提升。但对此应用场景的开发应该是领先业界的，可视作全新的功能。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC站点注册Email</t>
+  </si>
+  <si>
+    <t>wuzhy28@mail2.sysu.edu.cn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件学院/16级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a) 本产品计划采用免费用户注册制度, 收集CC条款内的可利用的图片资源, 进行本地化的收藏以及社交分享。可以根据用户的搜索习惯来推送相应的广告, 从而实现盈利。
+b) 在电影爱好者群里进行了小范围的目标用户访问与需求分析, 并由此吸纳了一批测试人员。已陆续有beta/release版本已经发布, 欢迎到github上下载。
+     地址: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>https://github.com/gyakkun/poster-collection/releases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线 Light"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a) 采用微软UWP平台开发。使用MVVM的渐进式架构, 设计模式为单例模式。
+b) 开发环境: Visual Studio 2017 15.6.6或以上。选用SDK: Windows 10 SDK (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10.0.14393.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线 Light"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, 对应Windows 10 1607 Anniversary Update)
+    运行环境: Windows 10 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1607 (内核10.0.14393.0) 及以上版本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线 Light"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。
+c) 计划实现的功能: 电影检索、简单电影信息展示, 高清海报展示, 高清海报下载, 海报收藏与备注, 海报社交分享功能。
+   功能特点: 简单易用, 能够满足一个电影爱好者对海报收藏的需求。不做过多复杂而无用的逻辑, 尽量将可导航的页面控制在5页以内。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poster Collection!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省 广州市 中山大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alias</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyakkun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>gyakkun+posukore@hotmail.com</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东省 广州市 中山大学</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZG</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>alias</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>gyakkun</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a) 分工:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:        组长、技术总监、主程(Group Leader, Technical Director and Chief Programmer)。负责选定架构、实现UI、基本逻辑。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>alias</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:      首席程序员, 数据库设计师(Principle Programmer and Database Designer)。负责数据结构的实现, 收藏、社交功能的实现。全权负责数据库部分的设计。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线 Light"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gyakkun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线 Light"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: 助理程序员, 产品经理, 测试主任, 代码管理, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线 Light"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>饮水机管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线 Light"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(Supporting Programmer, Product Manager, Leader of Testing team, Git Administrator and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线 Light"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Water Dispenser Administrator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线 Light"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">)。负责部分数据结构的设计、功能增删的审批、测试人员招募、项目git库管理、代码检查、代码合并, 简单的交互动画, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线 Light"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给组长和首席提供水、食物以及可用的API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线 Light"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, , 项目计划书的起草, 产品概念图的设计, 演示视频的录制与剪辑。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,83 +586,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="21.5"/>
-      <color rgb="FF7030A0"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22.5"/>
-      <color rgb="FF7030A0"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFA6A6A6"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF7030A0"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFA6A6A6"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -496,16 +601,99 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="等线 Light"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="宋体"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线 Light"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="等线 Light"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="等线 Light"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="等线 Light"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFA6A6A6"/>
+      <name val="等线 Light"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF7030A0"/>
+      <name val="等线 Light"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF7030A0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -535,7 +723,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -605,34 +793,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="7" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color theme="7" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top style="medium">
         <color theme="7" tint="-0.499984740745262"/>
       </top>
@@ -815,187 +977,185 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1483,662 +1643,696 @@
   </sheetPr>
   <dimension ref="B1:N72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:F15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.625" customWidth="1"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="38" customWidth="1"/>
-    <col min="11" max="14" width="9" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38" style="1" customWidth="1"/>
+    <col min="7" max="10" width="9" style="1"/>
+    <col min="11" max="14" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="53.25" customHeight="1">
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="2:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="2:12" ht="48" customHeight="1">
-      <c r="B2" s="21" t="s">
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="2:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-    </row>
-    <row r="3" spans="2:12" ht="15">
-      <c r="B3" s="22" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-    </row>
-    <row r="4" spans="2:12" ht="16.5">
-      <c r="B4" s="3" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+    </row>
+    <row r="4" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-    </row>
-    <row r="5" spans="2:12" ht="17.25" thickBot="1">
-      <c r="B5" s="3" t="s">
+      <c r="C4" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+    </row>
+    <row r="5" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-    </row>
-    <row r="6" spans="2:12" ht="17.25" thickBot="1">
-      <c r="B6" s="3" t="s">
+      <c r="C5" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+    </row>
+    <row r="6" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-    </row>
-    <row r="7" spans="2:12" ht="17.25" thickBot="1">
-      <c r="B7" s="3" t="s">
+      <c r="C6" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+    </row>
+    <row r="7" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-    </row>
-    <row r="8" spans="2:12" ht="16.5">
-      <c r="B8" s="3" t="s">
+      <c r="C7" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+    </row>
+    <row r="8" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="50">
         <v>13800000010</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-    </row>
-    <row r="9" spans="2:12" ht="16.5">
-      <c r="B9" s="3" t="s">
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+    </row>
+    <row r="9" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+    </row>
+    <row r="10" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="L10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="L11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="L12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="53"/>
+    </row>
+    <row r="15" spans="2:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+    </row>
+    <row r="16" spans="2:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-    </row>
-    <row r="10" spans="2:12" ht="16.5">
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="L10" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="16.5">
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="L11" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
-      <c r="L12" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="16.5">
-      <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-    </row>
-    <row r="14" spans="2:12" ht="15">
-      <c r="B14" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-    </row>
-    <row r="15" spans="2:12" ht="51" customHeight="1">
-      <c r="B15" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-    </row>
-    <row r="16" spans="2:12" ht="17.25" thickBot="1">
-      <c r="B16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B17" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="9">
-        <v>13800000010</v>
-      </c>
-      <c r="F17" s="10" t="s">
+      <c r="E17" s="5"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="2:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B18" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B19" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="2:6" ht="15">
-      <c r="B22" s="35"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="2:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="44"/>
       <c r="C22" s="36"/>
       <c r="D22" s="36"/>
       <c r="E22" s="36"/>
       <c r="F22" s="37"/>
     </row>
-    <row r="23" spans="2:6" ht="20.25" customHeight="1">
+    <row r="23" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="38" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
       <c r="F23" s="39"/>
     </row>
-    <row r="24" spans="2:6" ht="48.75" customHeight="1">
-      <c r="B24" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-    </row>
-    <row r="25" spans="2:6" ht="16.5">
-      <c r="B25" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="43"/>
-    </row>
-    <row r="26" spans="2:6" ht="16.5" customHeight="1">
-      <c r="B26" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
-    </row>
-    <row r="27" spans="2:6" ht="36" customHeight="1">
-      <c r="B27" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="49"/>
-    </row>
-    <row r="28" spans="2:6" ht="36" customHeight="1">
-      <c r="B28" s="47"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="49"/>
-    </row>
-    <row r="29" spans="2:6" ht="36" customHeight="1">
-      <c r="B29" s="47"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="49"/>
-    </row>
-    <row r="30" spans="2:6" ht="36" customHeight="1">
-      <c r="B30" s="47"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="49"/>
-    </row>
-    <row r="31" spans="2:6" ht="36" customHeight="1" thickBot="1">
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="52"/>
-    </row>
-    <row r="32" spans="2:6" ht="15">
+    <row r="24" spans="2:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="47"/>
+    </row>
+    <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="34"/>
+    </row>
+    <row r="27" spans="2:6" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="2:6" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="2:6" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="2:6" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="2:6" s="10" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C32" s="39"/>
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
       <c r="F32" s="39"/>
     </row>
-    <row r="33" spans="2:6" ht="71.25" customHeight="1">
-      <c r="B33" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="54"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="46"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="47"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="49"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="47"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="49"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="47"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="49"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="50"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="52"/>
-    </row>
-    <row r="39" spans="2:6" ht="15">
+    <row r="33" spans="2:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+    </row>
+    <row r="34" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="34"/>
+    </row>
+    <row r="35" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="18"/>
+    </row>
+    <row r="36" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="18"/>
+    </row>
+    <row r="37" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="18"/>
+    </row>
+    <row r="38" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="38" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C39" s="39"/>
       <c r="D39" s="39"/>
       <c r="E39" s="39"/>
       <c r="F39" s="39"/>
     </row>
-    <row r="40" spans="2:6" ht="164.25" customHeight="1">
+    <row r="40" spans="2:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C40" s="40"/>
       <c r="D40" s="40"/>
       <c r="E40" s="40"/>
       <c r="F40" s="40"/>
     </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="54"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="46"/>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="47"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="49"/>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="47"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="49"/>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="47"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="49"/>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="50"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="52"/>
-    </row>
-    <row r="46" spans="2:6" s="1" customFormat="1" ht="15">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="34"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="18"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="18"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="18"/>
+    </row>
+    <row r="45" spans="2:6" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="19"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="38" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C46" s="39"/>
       <c r="D46" s="39"/>
       <c r="E46" s="39"/>
       <c r="F46" s="39"/>
     </row>
-    <row r="47" spans="2:6" s="1" customFormat="1" ht="39.75" customHeight="1">
-      <c r="B47" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="54"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="46"/>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="47"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="49"/>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" s="47"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="49"/>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="47"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="49"/>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" s="50"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="52"/>
-    </row>
-    <row r="53" spans="2:6" s="1" customFormat="1" ht="15">
+    <row r="47" spans="2:6" s="8" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+    </row>
+    <row r="48" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="34"/>
+    </row>
+    <row r="49" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="18"/>
+    </row>
+    <row r="50" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="18"/>
+    </row>
+    <row r="51" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="16"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="18"/>
+    </row>
+    <row r="52" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="19"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="21"/>
+    </row>
+    <row r="53" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="38"/>
       <c r="C53" s="39"/>
       <c r="D53" s="39"/>
       <c r="E53" s="39"/>
       <c r="F53" s="39"/>
     </row>
-    <row r="54" spans="2:6" s="1" customFormat="1" ht="51.75" customHeight="1">
-      <c r="B54" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-    </row>
-    <row r="55" spans="2:6">
-      <c r="B55" s="54"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="46"/>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="47"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="49"/>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="47"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="49"/>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="B58" s="47"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="49"/>
-    </row>
-    <row r="59" spans="2:6">
-      <c r="B59" s="50"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="52"/>
-    </row>
-    <row r="60" spans="2:6" ht="15">
+    <row r="54" spans="2:6" s="8" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+    </row>
+    <row r="55" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="34"/>
+    </row>
+    <row r="56" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="16"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="18"/>
+    </row>
+    <row r="57" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="16"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="18"/>
+    </row>
+    <row r="58" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="16"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="18"/>
+    </row>
+    <row r="59" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="19"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="21"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="38" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C60" s="39"/>
       <c r="D60" s="39"/>
       <c r="E60" s="39"/>
       <c r="F60" s="39"/>
     </row>
-    <row r="61" spans="2:6" ht="16.5">
-      <c r="B61" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-    </row>
-    <row r="62" spans="2:6">
-      <c r="B62" s="54"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="46"/>
-    </row>
-    <row r="63" spans="2:6">
-      <c r="B63" s="47"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="48"/>
-      <c r="F63" s="49"/>
-    </row>
-    <row r="64" spans="2:6">
-      <c r="B64" s="47"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="49"/>
-    </row>
-    <row r="65" spans="2:6">
-      <c r="B65" s="47"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="48"/>
-      <c r="E65" s="48"/>
-      <c r="F65" s="49"/>
-    </row>
-    <row r="66" spans="2:6">
-      <c r="B66" s="50"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="52"/>
-    </row>
-    <row r="67" spans="2:6" ht="17.25" customHeight="1">
-      <c r="B67" s="55" t="s">
-        <v>32</v>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+    </row>
+    <row r="62" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="25"/>
+    </row>
+    <row r="63" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="26"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="28"/>
+    </row>
+    <row r="64" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="26"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="28"/>
+    </row>
+    <row r="65" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="26"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="28"/>
+    </row>
+    <row r="66" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="29"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="31"/>
+    </row>
+    <row r="67" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="35" t="s">
+        <v>29</v>
       </c>
       <c r="C67" s="36"/>
       <c r="D67" s="36"/>
       <c r="E67" s="36"/>
       <c r="F67" s="37"/>
     </row>
-    <row r="68" spans="2:6" ht="173.25" customHeight="1">
-      <c r="B68" s="56" t="s">
+    <row r="68" spans="2:6" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+    </row>
+    <row r="69" spans="2:6" ht="342.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69" s="40"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
+    </row>
+    <row r="70" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" s="41"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
+    </row>
+    <row r="71" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C68" s="57"/>
-      <c r="D68" s="57"/>
-      <c r="E68" s="57"/>
-      <c r="F68" s="57"/>
-    </row>
-    <row r="69" spans="2:6" ht="342.75" customHeight="1">
-      <c r="B69" s="58" t="s">
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+    </row>
+    <row r="72" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C69" s="58"/>
-      <c r="D69" s="58"/>
-      <c r="E69" s="58"/>
-      <c r="F69" s="58"/>
-    </row>
-    <row r="70" spans="2:6" ht="23.25" customHeight="1">
-      <c r="B70" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="C70" s="59"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="59"/>
-      <c r="F70" s="59"/>
-    </row>
-    <row r="71" spans="2:6" ht="21.75" customHeight="1">
-      <c r="B71" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="C71" s="60"/>
-      <c r="D71" s="60"/>
-      <c r="E71" s="60"/>
-      <c r="F71" s="60"/>
-    </row>
-    <row r="72" spans="2:6" ht="27" customHeight="1">
-      <c r="B72" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="C72" s="53"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="53"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B46:F46"/>
     <mergeCell ref="B27:F31"/>
     <mergeCell ref="B72:F72"/>
     <mergeCell ref="B62:F66"/>
@@ -2155,34 +2349,8 @@
     <mergeCell ref="B53:F53"/>
     <mergeCell ref="B54:F54"/>
     <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:F13">
       <formula1>$L$10:$L$12</formula1>
@@ -2190,11 +2358,10 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C9" r:id="rId1"/>
-    <hyperlink ref="F17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2204,7 +2371,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="7" width="11.875" customWidth="1"/>
@@ -2238,7 +2405,7 @@
     <col min="35" max="35" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2270,89 +2437,89 @@
         <v>15</v>
       </c>
       <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>40</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>41</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>42</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>44</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>45</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>46</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>47</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>48</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>49</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>50</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35">
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A2" t="str">
         <f>中国区项目计划书!C4</f>
         <v>ZgenY an Gyak</v>
       </c>
       <c r="B2" t="str">
         <f>中国区项目计划书!C5</f>
-        <v>Poster Collection !</v>
+        <v>Poster Collection!</v>
       </c>
       <c r="C2" t="str">
         <f>中国区项目计划书!C6</f>
@@ -2368,7 +2535,7 @@
       </c>
       <c r="F2" t="str">
         <f>中国区项目计划书!C9</f>
-        <v>gyakkun+posukore@hotmail.com</v>
+        <v>wuzhy28@mail2.sysu.edu.cn</v>
       </c>
       <c r="G2" t="str">
         <f>中国区项目计划书!C10</f>
@@ -2380,7 +2547,7 @@
       </c>
       <c r="I2" t="str">
         <f>中国区项目计划书!C12</f>
-        <v>(如果参加了区域选拔赛，请填写所参赛的区域或校区；未参加区域选拔赛的团队请忽略此项)</v>
+        <v>中山大学 东校区</v>
       </c>
       <c r="J2" t="str">
         <f>中国区项目计划书!C13</f>
@@ -2388,7 +2555,7 @@
       </c>
       <c r="K2" t="str">
         <f>中国区项目计划书!B17</f>
-        <v>gyakkun</v>
+        <v>ZG</v>
       </c>
       <c r="L2" t="str">
         <f>中国区项目计划书!C17</f>
@@ -2400,11 +2567,11 @@
       </c>
       <c r="N2">
         <f>中国区项目计划书!E17</f>
-        <v>13800000010</v>
-      </c>
-      <c r="O2" t="str">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <f>中国区项目计划书!F17</f>
-        <v>gyakkun+posukore@hotmail.com</v>
+        <v>0</v>
       </c>
       <c r="P2" t="str">
         <f>中国区项目计划书!B18</f>
@@ -2428,7 +2595,7 @@
       </c>
       <c r="U2" t="str">
         <f>中国区项目计划书!B19</f>
-        <v>ZG</v>
+        <v>gyakkun</v>
       </c>
       <c r="V2" t="str">
         <f>中国区项目计划书!C19</f>
@@ -2442,9 +2609,9 @@
         <f>中国区项目计划书!E19</f>
         <v>0</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="str">
         <f>中国区项目计划书!F19</f>
-        <v>0</v>
+        <v>gyakkun+posukore@hotmail.com</v>
       </c>
       <c r="Z2">
         <f>中国区项目计划书!B20</f>
@@ -2466,9 +2633,9 @@
         <f>中国区项目计划书!F20</f>
         <v>0</v>
       </c>
-      <c r="AE2" t="str">
+      <c r="AE2">
         <f>中国区项目计划书!B21</f>
-        <v>郑贵锋</v>
+        <v>0</v>
       </c>
       <c r="AF2">
         <f>中国区项目计划书!C21</f>
@@ -2488,7 +2655,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
